--- a/pre_route.xlsx
+++ b/pre_route.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/pre_route.xlsx
+++ b/pre_route.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,40 +496,45 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>teens</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>young_adults</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>middle_adults</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>senior</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>l_sal</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>m_sal</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>h_sal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
@@ -574,35 +579,38 @@
       <c r="L2" t="n">
         <v>23.8</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>18.8</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>22.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>26.2</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>23.7</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.2</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>23.2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>25.4</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>17.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>acquaintance</t>
@@ -638,35 +646,38 @@
       <c r="L3" t="n">
         <v>40.5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>39</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>39.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>42</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>45.2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>46.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>42</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>40.5</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>39.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>internet_mobile_app</t>
@@ -702,35 +713,38 @@
       <c r="L4" t="n">
         <v>10</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>12.7</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>14.9</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>6.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>1.5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>8.4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>10.4</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>20.3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>advertising</t>
@@ -766,35 +780,38 @@
       <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>3.3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>4.3</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>3.5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>4</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>3.9</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>article_broadcast</t>
@@ -830,35 +847,38 @@
       <c r="L6" t="n">
         <v>4.3</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>2.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>4.2</v>
       </c>
       <c r="P6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>1.9</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>4.3</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>4</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>guidebook</t>
@@ -894,35 +914,38 @@
       <c r="L7" t="n">
         <v>2.3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>2.5</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>2.3</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>1.6</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>travel_agency</t>
@@ -958,33 +981,36 @@
       <c r="L8" t="n">
         <v>1.8</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>0.9</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1.1</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>2.2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>1</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>1.4</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>2</v>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>no_information</t>
@@ -1020,35 +1046,38 @@
       <c r="L9" t="n">
         <v>13.3</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>19</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>11.7</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>13.2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>18.5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>20.7</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>14.6</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>11.4</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>15.2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2018</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>etc</t>
@@ -1076,16 +1105,21 @@
       <c r="L10" t="n">
         <v>0.1</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1126,33 +1160,36 @@
       <c r="L11" t="n">
         <v>28.2</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>21.6</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>27.4</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>30.1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>27.7</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>27.2</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>28</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>29</v>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>acquaintance</t>
@@ -1188,33 +1225,36 @@
       <c r="L12" t="n">
         <v>38.5</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>41.1</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>36.6</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>38.7</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>44.2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>44.5</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>39.3</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>37.1</v>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>internet_mobile_app</t>
@@ -1250,33 +1290,36 @@
       <c r="L13" t="n">
         <v>12.7</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>15.7</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>17</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>9.1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>4.8</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>11.2</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>12.6</v>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>advertising</t>
@@ -1312,33 +1355,36 @@
       <c r="L14" t="n">
         <v>2.7</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>2.1</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2.9</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>2.5</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>1.5</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>2.6</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>2.9</v>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>article_broadcast</t>
@@ -1374,33 +1420,36 @@
       <c r="L15" t="n">
         <v>2.7</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>2.9</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>2.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>2.9</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>1.8</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>2.6</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>2.7</v>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>guidebook</t>
@@ -1436,33 +1485,36 @@
       <c r="L16" t="n">
         <v>0.8</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>0.7</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>0.8</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0.9</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>0.6</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>0.7</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>1.1</v>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>travel_agency</t>
@@ -1498,33 +1550,36 @@
       <c r="L17" t="n">
         <v>0.7</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>0.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.7</v>
       </c>
       <c r="O17" t="n">
         <v>0.7</v>
       </c>
       <c r="P17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>1.5</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.9</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.6</v>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>no_information</t>
@@ -1560,33 +1615,36 @@
       <c r="L18" t="n">
         <v>13.3</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>14.5</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>12.2</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>14.6</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>18.1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>17.7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>14.5</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>13.7</v>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>etc</t>
@@ -1622,28 +1680,33 @@
       <c r="L19" t="n">
         <v>0.3</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1.1</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.1</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0.2</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>0.6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.2</v>
       </c>
       <c r="R19" t="n">
         <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1684,33 +1747,36 @@
       <c r="L20" t="n">
         <v>32.8</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>28.1</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>29.9</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>36.3</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>33.5</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>35.5</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>33.2</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>32.2</v>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>acquaintance</t>
@@ -1746,33 +1812,36 @@
       <c r="L21" t="n">
         <v>28.7</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>31.6</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>28.3</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>27.7</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>34.6</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>31.8</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>28.7</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>29.6</v>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>internet_mobile_app</t>
@@ -1808,33 +1877,36 @@
       <c r="L22" t="n">
         <v>13.7</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>12.2</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>18.8</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>9.5</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>4.2</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>12.2</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>14</v>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>advertising</t>
@@ -1870,33 +1942,36 @@
       <c r="L23" t="n">
         <v>1.8</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>2.1</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>1.9</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>1.5</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.9</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>1.9</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>1.5</v>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>article_broadcast</t>
@@ -1932,33 +2007,36 @@
       <c r="L24" t="n">
         <v>2.2</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>3.2</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>2.4</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1.9</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.5</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>2</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>2.4</v>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>guidebook</t>
@@ -1992,29 +2070,32 @@
       <c r="L25" t="n">
         <v>0.4</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>0.2</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.4</v>
-      </c>
       <c r="O25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.5</v>
       </c>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T25" t="n">
         <v>0.5</v>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>travel_agency</t>
@@ -2050,31 +2131,34 @@
       <c r="L26" t="n">
         <v>0.4</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>0.7</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.2</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0.3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="n">
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
         <v>0.2</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.5</v>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>no_information</t>
@@ -2110,33 +2194,36 @@
       <c r="L27" t="n">
         <v>20</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>22</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>18</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>22.3</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>26.2</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>27.2</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>21.2</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>19.5</v>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>2020</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>etc</t>
@@ -2172,24 +2259,29 @@
       <c r="L28" t="n">
         <v>0.1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0.1</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="n">
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
         <v>0.2</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,33 +2322,36 @@
       <c r="L29" t="n">
         <v>32.4</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>32.6</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>30.2</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>36</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>35.6</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>36.1</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>35</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>31.5</v>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>acquaintance</t>
@@ -2292,33 +2387,36 @@
       <c r="L30" t="n">
         <v>26.2</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>28.3</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>24.6</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>26.6</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>31.7</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>30.9</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>26.4</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>26.6</v>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>internet_mobile_app</t>
@@ -2354,33 +2452,36 @@
       <c r="L31" t="n">
         <v>19.3</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>18.3</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>24</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>13.9</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>4.9</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>4.4</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>14.5</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>20.9</v>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>advertising</t>
@@ -2416,11 +2517,13 @@
       <c r="L32" t="n">
         <v>1.6</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>0.8</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.7</v>
@@ -2429,20 +2532,21 @@
         <v>1.7</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.2</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>1.8</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>1.6</v>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>article_broadcast</t>
@@ -2478,33 +2582,36 @@
       <c r="L33" t="n">
         <v>1.8</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>0.6</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>1.9</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>1.8</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>1.1</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>1.8</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>1.5</v>
       </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>guidebook</t>
@@ -2540,33 +2647,36 @@
       <c r="L34" t="n">
         <v>0.4</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.5</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="N34" t="n">
         <v>0.5</v>
       </c>
       <c r="O34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.3</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Q34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R34" t="n">
         <v>0.2</v>
       </c>
-      <c r="R34" t="n">
-        <v>0.4</v>
-      </c>
       <c r="S34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T34" t="n">
         <v>0.5</v>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>travel_agency</t>
@@ -2602,31 +2712,34 @@
       <c r="L35" t="n">
         <v>0.4</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>0.1</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.4</v>
-      </c>
       <c r="O35" t="n">
         <v>0.4</v>
       </c>
       <c r="P35" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="n">
+      <c r="Q35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
         <v>0.3</v>
       </c>
-      <c r="S35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
           <t>no_information</t>
@@ -2662,33 +2775,36 @@
       <c r="L36" t="n">
         <v>17.9</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>18.9</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>16.9</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>19.2</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>24.2</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>26.1</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>19.8</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>16.9</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>2021</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>etc</t>
@@ -2718,7 +2834,11 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2726,6 +2846,7 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2766,33 +2887,36 @@
       <c r="L38" t="n">
         <v>32.5</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>29.2</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>29.4</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>35.6</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>35.3</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>32.1</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>34</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>32</v>
       </c>
-      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>acquaintance</t>
@@ -2828,33 +2952,36 @@
       <c r="L39" t="n">
         <v>26.4</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>27.4</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>24.8</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>26.2</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>33.8</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>32.4</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>26.5</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>27.3</v>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>internet_mobile_app</t>
@@ -2890,33 +3017,36 @@
       <c r="L40" t="n">
         <v>19.8</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>21.3</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>24.2</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>15.4</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>6.2</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>5.6</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>15.3</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>20</v>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>advertising</t>
@@ -2952,33 +3082,36 @@
       <c r="L41" t="n">
         <v>2.4</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>0.9</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>2.4</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>2.3</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>2.2</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>1.8</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>2.4</v>
       </c>
-      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>article_broadcast</t>
@@ -3014,33 +3147,36 @@
       <c r="L42" t="n">
         <v>2.2</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1.5</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>2.4</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>2.3</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>1.6</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.2</v>
       </c>
       <c r="S42" t="n">
         <v>2.2</v>
       </c>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>guidebook</t>
@@ -3076,33 +3212,36 @@
       <c r="L43" t="n">
         <v>0.5</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>0.7</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.5</v>
       </c>
-      <c r="O43" t="n">
-        <v>0.4</v>
-      </c>
       <c r="P43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q43" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.5</v>
       </c>
       <c r="S43" t="n">
         <v>0.5</v>
       </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>travel_agency</t>
@@ -3138,33 +3277,36 @@
       <c r="L44" t="n">
         <v>0.4</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>0.7</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.2</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0.5</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>1.2</v>
       </c>
-      <c r="R44" t="n">
-        <v>0.4</v>
-      </c>
       <c r="S44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T44" t="n">
         <v>0.5</v>
       </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>2022</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>no_information</t>
@@ -3200,28 +3342,33 @@
       <c r="L45" t="n">
         <v>15.9</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>18.4</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>15.9</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>17.4</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>20</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>24.6</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>19.2</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>15.2</v>
       </c>
-      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
